--- a/biology/Zoologie/Enos_(genre)/Enos_(genre).xlsx
+++ b/biology/Zoologie/Enos_(genre)/Enos_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enos est un genre d'insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Kurt Johnson (d), James J. Kruse (d) et Karl Ritter Kroenlein (d) en 1997.
 </t>
@@ -542,13 +556,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Enos falerina (Hewitson, 1867) présent au Guatemala, en Colombie, au Pérou, au Surinam, au Guyana et en Guyane
 Enos maculata (Lathy, 1936) présent au Pérou
 Enos mazurka (Hewitson, 1867) présent au Brésil
 Enos myrtea (Hewitson, 1867) présent au Brésil
-Enos thara (Hewitson, 1867) présent au Costa Rica, au Guatemala, au Panama, au Brésil et en Guyane[1],[2].</t>
+Enos thara (Hewitson, 1867) présent au Costa Rica, au Guatemala, au Panama, au Brésil et en Guyane,.</t>
         </is>
       </c>
     </row>
@@ -576,9 +592,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Enos sont présents en Amérique centrale et Amérique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Enos sont présents en Amérique centrale et Amérique du Sud.
 Sur les autres projets Wikimedia :
 Enos (genre), sur Wikimedia CommonsEnos (genre), sur Wikispecies
 </t>
